--- a/Backend SQA/BackendSQA.xlsx
+++ b/Backend SQA/BackendSQA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier\Desktop\UPOD\01_Version2\Backend\Backend SQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier\Desktop\UPOD\02_Version3\UPOD-master\Backend SQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{6BFBDF55-BC0B-4C87-8301-929B0D0B019A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{6BFBDF55-BC0B-4C87-8301-929B0D0B019A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Backend SQA</t>
   </si>
@@ -57,13 +57,31 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Consistency amongst comments for classes and functions will be useful. I propose having author, purpose, updated by and last updated as fields.</t>
+  </si>
+  <si>
+    <t>Every file in Backend</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Xavier K.</t>
+  </si>
+  <si>
+    <t>Unresolved</t>
+  </si>
+  <si>
+    <t>maybe, write over here, which file comments have been changed as we work through them</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +101,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,23 +146,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Excel_BuiltIn_Neutral" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE6D01-6602-43B9-9879-48343F2D835E}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -452,92 +531,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+    <row r="5" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43068</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
